--- a/population/positive_destinations.xlsx
+++ b/population/positive_destinations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/dominik_szczepaniak_gov_scot/Documents/rural_dashboard/population/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/jacqueline_massaya_gov_scot/Documents/R/rural_dashboard/population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC104884419953BC5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A1415D0-0503-473F-B0BE-7CA5B35D974B}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC104884419953BC5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651E25BC-6625-4D76-A109-627752F16921}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="645" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Table 3.4. Percentage of mainstream secondary school leavers by follow-up destination category and 6-fold Urban Rural classification of school, 2009-10 to 2022-23 (All Positive Destinations)</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>2009-10</t>
+  </si>
+  <si>
+    <t>2023-24</t>
   </si>
 </sst>
 </file>
@@ -123,12 +126,12 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -141,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,14 +152,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -171,15 +202,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2591D033-FB92-4DD0-8FC6-285B4C492821}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
     <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -192,6 +225,7 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -204,6 +238,7 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -216,6 +251,7 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -228,6 +264,7 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -240,6 +277,7 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -312,9 +350,11 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <name val="Arial"/>
         <family val="2"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -336,6 +376,26 @@
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -350,19 +410,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FB29585-8BFD-480E-B960-BB2762AC927E}" name="Table1821283874" displayName="Table1821283874" ref="A2:H16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H16">
-    <sortCondition descending="1" ref="A39:A52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5A3470BE-D762-4BEB-901A-EFF51F0A37EA}" name="Table18212838744" displayName="Table18212838744" ref="A2:H17" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H17">
+    <sortCondition descending="1" ref="A41:A54"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DDE23F5C-5833-401A-9F93-B6F3DCF2B726}" name="Year" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{4534E30F-D705-4934-9FB8-BC2BCBDB6241}" name="Large Urban Areas" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{C5649848-18E4-411B-9C6E-6EDFB1E062AC}" name="Other Urban Areas" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{8EF0BCFD-2FDE-47AD-B6C9-08C97A6CA06F}" name="Accessible Small Towns" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{20ABD0A7-805A-4E1C-9371-00934E79F846}" name="Remote Small Towns" dataDxfId="3"/>
-    <tableColumn id="26" xr3:uid="{317EB2E1-89E7-40EB-B379-FE489F69E104}" name="Accessible Rural" dataDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{E77CF918-ABCA-4C34-8BE0-A8BB13007B65}" name="Remote Rural" dataDxfId="1"/>
-    <tableColumn id="28" xr3:uid="{30F144A2-88E4-4480-B983-D6286091BF52}" name="Total " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{92849559-D33D-4DD2-9EFB-4268186E58FD}" name="Year" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{BDB5486F-CA94-4676-97F8-C425FEE54264}" name="Large Urban Areas" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{0347985C-003A-4134-87CC-07C326FEEAFB}" name="Other Urban Areas" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{80F508FF-CA00-43B0-8DE0-65ADDC3A4F0A}" name="Accessible Small Towns" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{4C1722FF-3496-426C-912E-4D42D7EC4677}" name="Remote Small Towns" dataDxfId="3"/>
+    <tableColumn id="26" xr3:uid="{0D50D0D2-3B31-483F-B132-619C5B68DEAE}" name="Accessible Rural" dataDxfId="2"/>
+    <tableColumn id="27" xr3:uid="{B3B98492-3B00-47F6-A483-15C7D4D9E23A}" name="Remote Rural" dataDxfId="1"/>
+    <tableColumn id="28" xr3:uid="{5B1B8381-FE03-4956-9413-26164B0528FE}" name="Total " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -631,15 +691,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A2" sqref="A2:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,417 +713,450 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4">
+        <v>92.78447417892292</v>
+      </c>
+      <c r="C3" s="4">
+        <v>92.559508957532813</v>
+      </c>
+      <c r="D3" s="4">
+        <v>94.098169068952089</v>
+      </c>
+      <c r="E3" s="4">
+        <v>92.578125</v>
+      </c>
+      <c r="F3" s="4">
+        <v>94.119854873013892</v>
+      </c>
+      <c r="G3" s="4">
+        <v>94.83491337038248</v>
+      </c>
+      <c r="H3" s="5">
+        <v>93.12228051641091</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B4" s="9">
         <v>92.7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4" s="9">
         <v>92.2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D4" s="9">
         <v>92.9</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="9">
         <v>92.1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F4" s="9">
         <v>93.8</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G4" s="9">
         <v>95.7</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H4" s="9">
         <v>92.8</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="9">
         <v>93.7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C5" s="9">
         <v>92.7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D5" s="9">
         <v>93.7</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="9">
         <v>92.3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F5" s="9">
         <v>95.1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G5" s="9">
         <v>94.8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H5" s="9">
         <v>93.5</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="9">
         <v>93.2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="9">
         <v>92.3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="9">
         <v>93.8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="9">
         <v>93.1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F6" s="9">
         <v>94.7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G6" s="9">
         <v>95.4</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H6" s="9">
         <v>93.2</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="9">
         <v>92.2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="9">
         <v>91.4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="9">
         <v>93</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="9">
         <v>91.1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="9">
         <v>93.7</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="9">
         <v>93.8</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7" s="9">
         <v>92.2</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="9">
         <v>92.4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="9">
         <v>92.1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="9">
         <v>93.7</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="9">
         <v>93.6</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="9">
         <v>94.5</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="9">
         <v>94.6</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="9">
         <v>92.9</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="9">
         <v>92.4</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="9">
         <v>92.9</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="9">
         <v>93.7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="9">
         <v>94.8</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="9">
         <v>95.1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="9">
         <v>95.9</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H9" s="9">
         <v>93.3</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="9">
         <v>92.4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="9">
         <v>92.4</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="9">
         <v>93.3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="9">
         <v>94.6</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="9">
         <v>95.2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G10" s="9">
         <v>96.4</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H10" s="9">
         <v>93.1</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="9">
         <v>90.2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="9">
         <v>91.6</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="9">
         <v>93.6</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="9">
         <v>93.3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="9">
         <v>92.4</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="9">
         <v>93.2</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="9">
         <v>91.6</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="9">
         <v>91.6</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="9">
         <v>91.7</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="9">
         <v>93.5</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="9">
         <v>93.5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="9">
         <v>92.7</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="9">
         <v>95.8</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="9">
         <v>92.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="9">
         <v>90.7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="9">
         <v>91.5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="9">
         <v>93.2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="9">
         <v>93.2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="9">
         <v>92.5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="9">
         <v>95.5</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="9">
         <v>91.7</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B14" s="9">
         <v>89.1</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="9">
         <v>90.5</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="9">
         <v>92.2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="9">
         <v>93.2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="9">
         <v>90.5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="9">
         <v>94.2</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="9">
         <v>90.6</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="9">
         <v>88.3</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="9">
         <v>90.2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="9">
         <v>90.4</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="9">
         <v>91.3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="9">
         <v>90.1</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="9">
         <v>93.5</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="9">
         <v>89.8</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B16" s="9">
         <v>85.8</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="9">
         <v>87.8</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="9">
         <v>89.1</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="9">
         <v>88.9</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="9">
         <v>87.6</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="9">
         <v>91.8</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="9">
         <v>87.5</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B17" s="9">
         <v>84.3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="9">
         <v>86</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="9">
         <v>86.8</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="9">
         <v>89.3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="9">
         <v>86.2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="9">
         <v>90</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="9">
         <v>85.9</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
       <c r="J17" s="2"/>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:H3">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
